--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -22,13 +22,13 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Time &amp; Date</t>
   </si>
   <si>
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>2022-03-28</t>
+    <t>19:16:06  03/28/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>19:16:06  03/28/22</t>
+    <t>10:16:48  03/29/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>10:16:48  03/29/22</t>
+    <t>10:47:15  03/29/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>10:16:48  03/29/22</t>
+    <t>10:50:49  03/29/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>10:47:15  03/29/22</t>
+    <t>10:54:30  03/29/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>10:54:30  03/29/22</t>
+    <t>10:55:15  03/29/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>10:50:49  03/29/22</t>
+    <t>13:02:04 03/29/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>13:02:04 03/29/22</t>
+    <t>16:37:13 03/29/22</t>
   </si>
   <si>
     <t>PASSED</t>

--- a/testData/Test_case_result.xlsx
+++ b/testData/Test_case_result.xlsx
@@ -28,7 +28,7 @@
     <t>Combination_Positive_Negative.py</t>
   </si>
   <si>
-    <t>16:37:13 03/29/22</t>
+    <t>12:20:53 03/31/22</t>
   </si>
   <si>
     <t>PASSED</t>
